--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\eclipse-workspace\CommonFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59266622-6932-4591-89CF-84141C4639E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E831FF27-31C1-440D-A87D-D253A9E6FE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -702,7 +702,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -889,7 +889,7 @@
         <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>72</v>
@@ -906,7 +906,7 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>73</v>
@@ -923,7 +923,7 @@
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>74</v>
@@ -940,7 +940,7 @@
         <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>75</v>
@@ -959,9 +959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15:B18"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1144,7 +1144,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -1760,7 +1760,7 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -1816,7 +1816,7 @@
         <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1872,7 +1872,7 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -1928,7 +1928,7 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
